--- a/exacl formating task.xlsx
+++ b/exacl formating task.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be8f436690462624/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be8f436690462624/Desktop/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD5C98C0-06A5-48FA-BBAB-34D0A02369E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{BD5C98C0-06A5-48FA-BBAB-34D0A02369E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5980383-90E4-4EC4-8A9D-936941F187F1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7ACA2F93-0574-4DB2-BF77-EF8BE43014FD}"/>
   </bookViews>
@@ -86,8 +86,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="169" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -106,22 +106,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,8 +146,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -266,74 +272,117 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -341,73 +390,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -425,7 +407,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="169" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
+      <numFmt numFmtId="165" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -459,7 +441,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -529,46 +511,6 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial"/>
@@ -594,10 +536,117 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color indexed="64"/>
         </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -669,14 +718,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{489D9232-627E-4798-990A-5909A9B847D6}" name="Table1" displayName="Table1" ref="A4:E9" headerRowDxfId="2" dataDxfId="0" totalsRowDxfId="1" headerRowBorderDxfId="8" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{489D9232-627E-4798-990A-5909A9B847D6}" name="Table1" displayName="Table1" ref="A4:E9" headerRowDxfId="10" dataDxfId="8" totalsRowDxfId="7" headerRowBorderDxfId="9" totalsRowBorderDxfId="6">
   <autoFilter ref="A4:E9" xr:uid="{489D9232-627E-4798-990A-5909A9B847D6}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1590ECAF-2C48-4450-A21E-2E8354DFF11B}" name="Order ID" totalsRowLabel="Total" dataDxfId="7" totalsRowDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{36F24DCA-B6E9-49A7-96F7-20D3DE6F6D0D}" name=" Customer Name" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{70EC29C3-4408-493A-86D6-A6F00E5A7173}" name="Region" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{4641543A-9362-45A7-9C7A-B304B08E90CA}" name="Sales ($)" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{EC22C28D-C1B9-4B99-A11D-5015769F8282}" name="Order Date" totalsRowFunction="count" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{1590ECAF-2C48-4450-A21E-2E8354DFF11B}" name="Order ID" totalsRowLabel="Total" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{36F24DCA-B6E9-49A7-96F7-20D3DE6F6D0D}" name=" Customer Name" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{70EC29C3-4408-493A-86D6-A6F00E5A7173}" name="Region" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{4641543A-9362-45A7-9C7A-B304B08E90CA}" name="Sales ($)" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{EC22C28D-C1B9-4B99-A11D-5015769F8282}" name="Order Date" totalsRowFunction="count" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -982,10 +1031,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:E19"/>
+  <dimension ref="A2:E19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,114 +1046,115 @@
     <col min="5" max="5" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="3">
         <v>1001</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="5">
         <v>1200</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="6">
         <v>45306</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="7">
         <v>1002</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="9">
         <v>950</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="10">
         <v>45307</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="A7" s="11">
         <v>1003</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="13">
         <v>760</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="14">
         <v>45308</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="7">
         <v>1004</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="9">
         <v>480</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="10">
         <v>45309</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
+      <c r="A9" s="15">
         <v>1005</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="17">
         <v>1340</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="18">
         <v>45310</v>
       </c>
     </row>
